--- a/Temp/temp.xlsx
+++ b/Temp/temp.xlsx
@@ -790,11 +790,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1027,11 +1031,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1264,11 +1272,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1501,11 +1513,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1738,11 +1754,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1975,11 +1995,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2212,11 +2236,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2449,11 +2477,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2686,11 +2718,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -2923,11 +2959,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3160,11 +3200,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>3</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3397,11 +3441,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3634,11 +3682,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3871,11 +3923,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -4108,11 +4164,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4345,11 +4405,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4582,11 +4646,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -4819,11 +4887,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -5056,11 +5128,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -5293,11 +5369,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -5530,11 +5610,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -5767,11 +5851,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -6004,11 +6092,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>3</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -6241,11 +6333,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>3</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -6478,11 +6574,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>3</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -6715,11 +6815,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>3</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -6952,11 +7056,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>3</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -7189,11 +7297,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>3</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -7426,11 +7538,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -7663,11 +7779,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -7900,11 +8020,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>3</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -8137,11 +8261,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>3</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -8374,11 +8502,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>3</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -8611,11 +8743,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>3</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -8848,11 +8984,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" t="n">
-        <v>3</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -9085,11 +9225,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>1</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -9322,11 +9466,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T38" t="n">
-        <v>2</v>
-      </c>
-      <c r="U38" t="n">
-        <v>3</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -9559,11 +9707,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>3</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -9796,11 +9948,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>3</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -10033,11 +10189,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>2</v>
-      </c>
-      <c r="U41" t="n">
-        <v>3</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -10270,11 +10430,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
-      <c r="U42" t="n">
-        <v>3</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -10507,11 +10671,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T43" t="n">
-        <v>2</v>
-      </c>
-      <c r="U43" t="n">
-        <v>3</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -10744,11 +10912,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>2</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -10981,11 +11153,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T45" t="n">
-        <v>1</v>
-      </c>
-      <c r="U45" t="n">
-        <v>3</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -11218,11 +11394,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>2</v>
-      </c>
-      <c r="U46" t="n">
-        <v>3</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -11455,11 +11635,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -11692,11 +11876,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U48" t="n">
-        <v>3</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -11929,11 +12117,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
-      <c r="U49" t="n">
-        <v>3</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -12166,11 +12358,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T50" t="n">
-        <v>2</v>
-      </c>
-      <c r="U50" t="n">
-        <v>3</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -12403,11 +12599,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>2</v>
-      </c>
-      <c r="U51" t="n">
-        <v>3</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -12640,11 +12840,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T52" t="n">
-        <v>2</v>
-      </c>
-      <c r="U52" t="n">
-        <v>3</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -12877,11 +13081,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -13114,11 +13322,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T54" t="n">
-        <v>2</v>
-      </c>
-      <c r="U54" t="n">
-        <v>3</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -13351,11 +13563,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T55" t="n">
-        <v>2</v>
-      </c>
-      <c r="U55" t="n">
-        <v>3</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -13588,11 +13804,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
-      <c r="U56" t="n">
-        <v>3</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -13825,11 +14045,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" t="n">
-        <v>3</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -14062,11 +14286,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T58" t="n">
-        <v>2</v>
-      </c>
-      <c r="U58" t="n">
-        <v>3</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -14299,11 +14527,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T59" t="n">
-        <v>1</v>
-      </c>
-      <c r="U59" t="n">
-        <v>3</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -14536,11 +14768,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
-      <c r="U60" t="n">
-        <v>3</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -14773,11 +15009,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T61" t="n">
-        <v>1</v>
-      </c>
-      <c r="U61" t="n">
-        <v>3</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -15010,11 +15250,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T62" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" t="n">
-        <v>3</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -15247,11 +15491,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T63" t="n">
-        <v>1</v>
-      </c>
-      <c r="U63" t="n">
-        <v>3</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -15484,11 +15732,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T64" t="n">
-        <v>1</v>
-      </c>
-      <c r="U64" t="n">
-        <v>3</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -15721,11 +15973,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T65" t="n">
-        <v>1</v>
-      </c>
-      <c r="U65" t="n">
-        <v>3</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -15958,11 +16214,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T66" t="n">
-        <v>2</v>
-      </c>
-      <c r="U66" t="n">
-        <v>3</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -16195,11 +16455,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T67" t="n">
-        <v>2</v>
-      </c>
-      <c r="U67" t="n">
-        <v>3</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -16432,11 +16696,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T68" t="n">
-        <v>2</v>
-      </c>
-      <c r="U68" t="n">
-        <v>3</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -16669,11 +16937,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T69" t="n">
-        <v>1</v>
-      </c>
-      <c r="U69" t="n">
-        <v>3</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -16906,11 +17178,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T70" t="n">
-        <v>1</v>
-      </c>
-      <c r="U70" t="n">
-        <v>3</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -17143,11 +17419,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T71" t="n">
-        <v>2</v>
-      </c>
-      <c r="U71" t="n">
-        <v>3</v>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -17380,11 +17660,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T72" t="n">
-        <v>2</v>
-      </c>
-      <c r="U72" t="n">
-        <v>3</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -17617,11 +17901,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T73" t="n">
-        <v>1</v>
-      </c>
-      <c r="U73" t="n">
-        <v>3</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -17854,11 +18142,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>3</v>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -18091,11 +18383,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T75" t="n">
-        <v>2</v>
-      </c>
-      <c r="U75" t="n">
-        <v>3</v>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -18328,11 +18624,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
-      <c r="U76" t="n">
-        <v>3</v>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -18565,11 +18865,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T77" t="n">
-        <v>2</v>
-      </c>
-      <c r="U77" t="n">
-        <v>3</v>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -18802,11 +19106,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
-      <c r="U78" t="n">
-        <v>3</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -19039,11 +19347,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T79" t="n">
-        <v>2</v>
-      </c>
-      <c r="U79" t="n">
-        <v>3</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -19276,11 +19588,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T80" t="n">
-        <v>2</v>
-      </c>
-      <c r="U80" t="n">
-        <v>3</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -19513,11 +19829,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T81" t="n">
-        <v>1</v>
-      </c>
-      <c r="U81" t="n">
-        <v>3</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -19750,11 +20070,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T82" t="n">
-        <v>1</v>
-      </c>
-      <c r="U82" t="n">
-        <v>3</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -19987,11 +20311,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T83" t="n">
-        <v>1</v>
-      </c>
-      <c r="U83" t="n">
-        <v>3</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -20224,11 +20552,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T84" t="n">
-        <v>2</v>
-      </c>
-      <c r="U84" t="n">
-        <v>3</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -20461,11 +20793,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T85" t="n">
-        <v>2</v>
-      </c>
-      <c r="U85" t="n">
-        <v>3</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -20698,11 +21034,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T86" t="n">
-        <v>2</v>
-      </c>
-      <c r="U86" t="n">
-        <v>3</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -20935,11 +21275,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T87" t="n">
-        <v>2</v>
-      </c>
-      <c r="U87" t="n">
-        <v>3</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -21172,11 +21516,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T88" t="n">
-        <v>2</v>
-      </c>
-      <c r="U88" t="n">
-        <v>3</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -21409,11 +21757,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T89" t="n">
-        <v>1</v>
-      </c>
-      <c r="U89" t="n">
-        <v>3</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -21646,11 +21998,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T90" t="n">
-        <v>1</v>
-      </c>
-      <c r="U90" t="n">
-        <v>3</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -21883,11 +22239,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T91" t="n">
-        <v>1</v>
-      </c>
-      <c r="U91" t="n">
-        <v>3</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -22120,11 +22480,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T92" t="n">
-        <v>2</v>
-      </c>
-      <c r="U92" t="n">
-        <v>3</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -22357,11 +22721,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T93" t="n">
-        <v>2</v>
-      </c>
-      <c r="U93" t="n">
-        <v>3</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>

--- a/Temp/temp.xlsx
+++ b/Temp/temp.xlsx
@@ -2479,7 +2479,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>002</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>JL. BUDAYA 22 - - 2 3</t>
+          <t>JL. BUDAYA 22 - - 002 3</t>
         </is>
       </c>
     </row>
